--- a/NorthDakota/WaterAllocation_WaterUse/ND_Allocation and Water Use Schema Mapping to WaDE.xlsx
+++ b/NorthDakota/WaterAllocation_WaterUse/ND_Allocation and Water Use Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation_WaterUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42833FD-DA8C-43C7-9738-28235845CFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17144D6E-978D-484A-ABCA-C5CD5EC7DB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="7" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -1114,9 +1114,6 @@
     <t>(701) 328-2750</t>
   </si>
   <si>
-    <t>The Department of Water Resources (DWR) was created in 2021 by Legislative action.  DWR has the authority to investigate, plan, construct, and develop water-related projects, and serves as a mechanism to financially support those efforts throughout North Dakota.</t>
-  </si>
-  <si>
     <t>https://www.swc.nd.gov/</t>
   </si>
   <si>
@@ -1282,6 +1279,9 @@
   </si>
   <si>
     <t>*use WaDE Name version from ben use</t>
+  </si>
+  <si>
+    <t>The DWR was created in 2021 by Legislative action.  DWR has the authority to investigate, plan, construct, and develop water-related projects, and serves as a mechanism to financially support those efforts throughout North Dakota.</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -3139,7 +3139,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>7</v>
@@ -3209,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>7</v>
@@ -3244,7 +3244,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>7</v>
@@ -3279,7 +3279,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>7</v>
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>7</v>
@@ -3350,9 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,7 +3616,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>7</v>
@@ -3668,7 +3668,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>7</v>
@@ -3875,7 +3875,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -4011,13 +4011,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="79" t="s">
         <v>7</v>
@@ -4046,7 +4046,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G8" s="60" t="s">
         <v>7</v>
@@ -4081,13 +4081,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>7</v>
@@ -4238,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -4306,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G5" s="83" t="s">
         <v>7</v>
@@ -4374,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" s="80" t="s">
         <v>7</v>
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I8" s="81" t="s">
         <v>7</v>
@@ -4440,7 +4440,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>7</v>
@@ -4610,10 +4610,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I14" s="81" t="s">
         <v>7</v>
@@ -4645,10 +4645,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15" s="81" t="s">
         <v>7</v>
@@ -4816,10 +4816,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>7</v>
@@ -5218,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="84"/>
@@ -5304,7 +5304,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F11" s="80" t="s">
         <v>7</v>
@@ -5371,10 +5371,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>7</v>
@@ -5595,10 +5595,10 @@
         <v>7</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>7</v>
@@ -5627,10 +5627,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>7</v>
@@ -5659,10 +5659,10 @@
         <v>7</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G22" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>7</v>
@@ -5688,13 +5688,13 @@
         <v>7</v>
       </c>
       <c r="E23" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>7</v>
@@ -5723,10 +5723,10 @@
         <v>7</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>7</v>
@@ -5755,10 +5755,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>7</v>
@@ -5819,10 +5819,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>7</v>
@@ -5851,10 +5851,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>7</v>
@@ -5915,10 +5915,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>7</v>
@@ -5947,10 +5947,10 @@
         <v>7</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G31" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>7</v>
@@ -6427,10 +6427,10 @@
         <v>7</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G46" s="119" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>7</v>
@@ -6474,7 +6474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:L16410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -6908,10 +6908,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H13" s="88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I13" s="91" t="s">
         <v>7</v>
@@ -6967,13 +6967,13 @@
         <v>7</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I15" s="91" t="s">
         <v>7</v>
@@ -7003,10 +7003,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I16" s="91" t="s">
         <v>7</v>
@@ -7336,7 +7336,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G28" s="83" t="s">
         <v>7</v>
@@ -7374,10 +7374,10 @@
         <v>7</v>
       </c>
       <c r="G29" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" s="88" t="s">
         <v>394</v>
-      </c>
-      <c r="H29" s="88" t="s">
-        <v>395</v>
       </c>
       <c r="I29" s="91" t="s">
         <v>7</v>
@@ -7433,13 +7433,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G31" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H31" s="88" t="s">
         <v>394</v>
-      </c>
-      <c r="H31" s="88" t="s">
-        <v>395</v>
       </c>
       <c r="I31" s="91" t="s">
         <v>7</v>
@@ -7468,13 +7468,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G32" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="88" t="s">
         <v>394</v>
-      </c>
-      <c r="H32" s="88" t="s">
-        <v>395</v>
       </c>
       <c r="I32" s="91" t="s">
         <v>7</v>
